--- a/EXCEL NICO LAB6.xlsx
+++ b/EXCEL NICO LAB6.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -116,10 +121,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -130,6 +135,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -196,115 +209,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>290.0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320.0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,112 +329,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17364817766693</c:v>
+                  <c:v>0.17364817766693033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.342020143325669</c:v>
+                  <c:v>0.34202014332566871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.642787609686539</c:v>
+                  <c:v>0.64278760968653925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.766044443118978</c:v>
+                  <c:v>0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.866025403784439</c:v>
+                  <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.939692620785908</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.984807753012208</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.984807753012208</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.939692620785908</c:v>
+                  <c:v>0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.866025403784439</c:v>
+                  <c:v>0.86602540378443871</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.766044443118978</c:v>
+                  <c:v>0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.642787609686539</c:v>
+                  <c:v>0.64278760968653947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.342020143325669</c:v>
+                  <c:v>0.34202014332566888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17364817766693</c:v>
+                  <c:v>0.17364817766693028</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.17364817766693</c:v>
+                  <c:v>-0.17364817766693047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.342020143325669</c:v>
+                  <c:v>-0.34202014332566866</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.642787609686539</c:v>
+                  <c:v>-0.64278760968653925</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.766044443118978</c:v>
+                  <c:v>-0.7660444431189779</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.866025403784438</c:v>
+                  <c:v>-0.86602540378443837</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.939692620785908</c:v>
+                  <c:v>-0.93969262078590821</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.984807753012208</c:v>
+                  <c:v>-0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.984807753012208</c:v>
+                  <c:v>-0.98480775301220813</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.939692620785909</c:v>
+                  <c:v>-0.93969262078590854</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.866025403784439</c:v>
+                  <c:v>-0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.766044443118978</c:v>
+                  <c:v>-0.76604444311897812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.642787609686539</c:v>
+                  <c:v>-0.64278760968653958</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.50000000000000044</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.342020143325669</c:v>
+                  <c:v>-0.3420201433256686</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.173648177666931</c:v>
+                  <c:v>-0.17364817766693127</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-2.45029690981724E-16</c:v>
@@ -455,115 +468,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>290.0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320.0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,115 +588,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.984807753012208</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.939692620785908</c:v>
+                  <c:v>0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.866025403784439</c:v>
+                  <c:v>0.86602540378443871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.766044443118978</c:v>
+                  <c:v>0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.642787609686539</c:v>
+                  <c:v>0.64278760968653936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.342020143325669</c:v>
+                  <c:v>0.34202014332566882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17364817766693</c:v>
+                  <c:v>0.17364817766693041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1257422745431E-17</c:v>
+                  <c:v>6.1257422745431001E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17364817766693</c:v>
+                  <c:v>-0.1736481776669303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.342020143325669</c:v>
+                  <c:v>-0.34202014332566871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.49999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.642787609686539</c:v>
+                  <c:v>-0.64278760968653936</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.766044443118978</c:v>
+                  <c:v>-0.7660444431189779</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.866025403784439</c:v>
+                  <c:v>-0.86602540378443871</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.939692620785908</c:v>
+                  <c:v>-0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.984807753012208</c:v>
+                  <c:v>-0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.984807753012208</c:v>
+                  <c:v>-0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.939692620785908</c:v>
+                  <c:v>-0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.866025403784439</c:v>
+                  <c:v>-0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.766044443118978</c:v>
+                  <c:v>-0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.642787609686539</c:v>
+                  <c:v>-0.64278760968653947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.50000000000000044</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.342020143325669</c:v>
+                  <c:v>-0.34202014332566938</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.17364817766693</c:v>
+                  <c:v>-0.17364817766693033</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1.83772268236293E-16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17364817766693</c:v>
+                  <c:v>0.17364817766692997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.342020143325668</c:v>
+                  <c:v>0.34202014332566816</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.642787609686539</c:v>
+                  <c:v>0.64278760968653925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.766044443118978</c:v>
+                  <c:v>0.76604444311897779</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.866025403784438</c:v>
+                  <c:v>0.86602540378443837</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.939692620785908</c:v>
+                  <c:v>0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.984807753012208</c:v>
+                  <c:v>0.98480775301220791</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140390632"/>
-        <c:axId val="2140730280"/>
+        <c:axId val="187425504"/>
+        <c:axId val="187424944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140390632"/>
+        <c:axId val="187425504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +744,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140730280"/>
+        <c:crossAx val="187424944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140730280"/>
+        <c:axId val="187424944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140390632"/>
+        <c:crossAx val="187425504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -763,7 +776,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1129,24 +1142,24 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="2" sqref="A2:A39 C2:C39 E2:E39"/>
+      <selection activeCell="E2" activeCellId="2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1247,7 +1260,7 @@
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>0.64278760968653936</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1331,7 +1344,7 @@
         <v>0.34202014332566882</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>0.17364817766693041</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>-0.1736481776669303</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>110</v>
       </c>
@@ -1415,7 +1428,7 @@
         <v>-0.34202014332566871</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>120</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>-0.49999999999999978</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>-0.64278760968653936</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>140</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>-0.7660444431189779</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>-0.86602540378443871</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>160</v>
       </c>
@@ -1520,7 +1533,7 @@
         <v>-0.93969262078590832</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>170</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>180</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>190</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>-0.93969262078590843</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>210</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>-0.8660254037844386</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>220</v>
       </c>
@@ -1646,7 +1659,7 @@
         <v>-0.76604444311897801</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>230</v>
       </c>
@@ -1667,7 +1680,7 @@
         <v>-0.64278760968653947</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>240</v>
       </c>
@@ -1688,7 +1701,7 @@
         <v>-0.50000000000000044</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>250</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>-0.34202014332566938</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>260</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>-0.17364817766693033</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>270</v>
       </c>
@@ -1751,7 +1764,7 @@
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>280</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>0.17364817766692997</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>290</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>0.34202014332566816</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>300</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>310</v>
       </c>
@@ -1835,7 +1848,7 @@
         <v>0.64278760968653925</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>320</v>
       </c>
@@ -1856,7 +1869,7 @@
         <v>0.76604444311897779</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>330</v>
       </c>
@@ -1877,7 +1890,7 @@
         <v>0.86602540378443837</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>340</v>
       </c>
@@ -1898,7 +1911,7 @@
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>350</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>0.98480775301220791</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>360</v>
       </c>
@@ -1940,41 +1953,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f>AVERAGE(D3:D38)</f>
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <f>SQRT(D41)</f>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <f>AVERAGE(C3:C20)</f>
         <v>0.63500290570896356</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>4.8572257327350599E-17</v>
       </c>
